--- a/pricelist-asialing.xlsx
+++ b/pricelist-asialing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSG\pipappr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\SSG\pipappr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{020E471E-95D2-46FE-9F73-8E542E04F58B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10198071-9BD9-4750-9A86-516E32C75B77}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A90C459B-AA92-4972-A048-366E84B7A6A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{A90C459B-AA92-4972-A048-366E84B7A6A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="102">
   <si>
     <t>Elbow 90° (Knee 90°)</t>
   </si>
@@ -145,6 +145,192 @@
   </si>
   <si>
     <t>Ball Valve Stainless Steel</t>
+  </si>
+  <si>
+    <t>Reducer Socket</t>
+  </si>
+  <si>
+    <t>40x20</t>
+  </si>
+  <si>
+    <t>40x25</t>
+  </si>
+  <si>
+    <t>40x32</t>
+  </si>
+  <si>
+    <t>50x20</t>
+  </si>
+  <si>
+    <t>50x25</t>
+  </si>
+  <si>
+    <t>50x32</t>
+  </si>
+  <si>
+    <t>50x40</t>
+  </si>
+  <si>
+    <t>63x20</t>
+  </si>
+  <si>
+    <t>63x25</t>
+  </si>
+  <si>
+    <t>63x32</t>
+  </si>
+  <si>
+    <t>63x40</t>
+  </si>
+  <si>
+    <t>63x50</t>
+  </si>
+  <si>
+    <t>75x32</t>
+  </si>
+  <si>
+    <t>75x40</t>
+  </si>
+  <si>
+    <t>75x50</t>
+  </si>
+  <si>
+    <t>75x63</t>
+  </si>
+  <si>
+    <t>90x40</t>
+  </si>
+  <si>
+    <t>90x50</t>
+  </si>
+  <si>
+    <t>90x63</t>
+  </si>
+  <si>
+    <t>90x75</t>
+  </si>
+  <si>
+    <t>110x40</t>
+  </si>
+  <si>
+    <t>110x50</t>
+  </si>
+  <si>
+    <t>110x63</t>
+  </si>
+  <si>
+    <t>110x75</t>
+  </si>
+  <si>
+    <t>110x90</t>
+  </si>
+  <si>
+    <t>160x110</t>
+  </si>
+  <si>
+    <t>1 1/4"x1/2"</t>
+  </si>
+  <si>
+    <t>1 1/4"x3/4"</t>
+  </si>
+  <si>
+    <t>1 1/4"x1"</t>
+  </si>
+  <si>
+    <t>1 1/2"x1/2"</t>
+  </si>
+  <si>
+    <t>1 1/2"x3/4"</t>
+  </si>
+  <si>
+    <t>1 1/2"x1"</t>
+  </si>
+  <si>
+    <t>1 1/2"x1 1/4"</t>
+  </si>
+  <si>
+    <t>2"x1/2"</t>
+  </si>
+  <si>
+    <t>2"x3/4"</t>
+  </si>
+  <si>
+    <t>2"x1"</t>
+  </si>
+  <si>
+    <t>2"x1 1/4"</t>
+  </si>
+  <si>
+    <t>2"x1 1/2"</t>
+  </si>
+  <si>
+    <t>2 1/2"x1"</t>
+  </si>
+  <si>
+    <t>2 1/2"x1 1/4"</t>
+  </si>
+  <si>
+    <t>2 1/2"x1 1/2"</t>
+  </si>
+  <si>
+    <t>2 1/2"x2"</t>
+  </si>
+  <si>
+    <t>3"x1 1/4"</t>
+  </si>
+  <si>
+    <t>3"x1 1/2"</t>
+  </si>
+  <si>
+    <t>3"x2"</t>
+  </si>
+  <si>
+    <t>3"x2 1/2"</t>
+  </si>
+  <si>
+    <t>4"x1 1/4"</t>
+  </si>
+  <si>
+    <t>4"x1 1/2"</t>
+  </si>
+  <si>
+    <t>4"x2"</t>
+  </si>
+  <si>
+    <t>4"x2 1/2"</t>
+  </si>
+  <si>
+    <t>4"x3"</t>
+  </si>
+  <si>
+    <t>6"x4"</t>
+  </si>
+  <si>
+    <t>32x20</t>
+  </si>
+  <si>
+    <t>1"x1/2"</t>
+  </si>
+  <si>
+    <t>75x20</t>
+  </si>
+  <si>
+    <t>75x25</t>
+  </si>
+  <si>
+    <t>2 1/2"x1/2"</t>
+  </si>
+  <si>
+    <t>2 1/2"x3/4"</t>
+  </si>
+  <si>
+    <t>90x32</t>
+  </si>
+  <si>
+    <t>3"x1"</t>
+  </si>
+  <si>
+    <t>Tee Reducer</t>
   </si>
 </sst>
 </file>
@@ -183,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -198,6 +384,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -514,56 +703,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7CF5E5-8ADE-45CE-A1DE-73BD5B03491B}">
-  <dimension ref="B2:L92"/>
+  <dimension ref="B2:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B71" workbookViewId="0">
-      <selection activeCell="L90" sqref="L90:L92"/>
+    <sheetView tabSelected="1" topLeftCell="C109" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84:H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -574,21 +765,21 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="6"/>
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="6"/>
       <c r="J4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -910,42 +1101,42 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="F18" s="4" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="F18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="J18" s="4" t="s">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="J18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4" t="s">
+      <c r="K19" s="6"/>
+      <c r="L19" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -956,21 +1147,21 @@
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="6"/>
       <c r="F20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="6"/>
       <c r="J20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
@@ -1284,42 +1475,42 @@
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="F34" s="4" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="F34" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="J34" s="4" t="s">
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="J34" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4" t="s">
+      <c r="G35" s="6"/>
+      <c r="H35" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4" t="s">
+      <c r="K35" s="6"/>
+      <c r="L35" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1330,21 +1521,21 @@
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="6"/>
       <c r="F36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="4"/>
+      <c r="H36" s="6"/>
       <c r="J36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L36" s="4"/>
+      <c r="L36" s="6"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
@@ -1599,42 +1790,42 @@
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="F47" s="4" t="s">
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="F47" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="J47" s="4" t="s">
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="J47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4" t="s">
+      <c r="C48" s="6"/>
+      <c r="D48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4" t="s">
+      <c r="G48" s="6"/>
+      <c r="H48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="J48" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4" t="s">
+      <c r="K48" s="6"/>
+      <c r="L48" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1645,21 +1836,21 @@
       <c r="C49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="6"/>
       <c r="F49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="4"/>
+      <c r="H49" s="6"/>
       <c r="J49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="4"/>
+      <c r="L49" s="6"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
@@ -1883,42 +2074,42 @@
       <c r="D58" s="5"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="F61" s="4" t="s">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="F61" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="J61" s="4" t="s">
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="J61" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4" t="s">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4" t="s">
+      <c r="G62" s="6"/>
+      <c r="H62" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="J62" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4" t="s">
+      <c r="K62" s="6"/>
+      <c r="L62" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1929,21 +2120,21 @@
       <c r="C63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="D63" s="6"/>
       <c r="F63" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H63" s="4"/>
+      <c r="H63" s="6"/>
       <c r="J63" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L63" s="4"/>
+      <c r="L63" s="6"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
@@ -2166,42 +2357,42 @@
       <c r="L71" s="5"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="F74" s="4" t="s">
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="F74" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="J74" s="4" t="s">
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="J74" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4" t="s">
+      <c r="C75" s="6"/>
+      <c r="D75" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4" t="s">
+      <c r="G75" s="6"/>
+      <c r="H75" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J75" s="4" t="s">
+      <c r="J75" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4" t="s">
+      <c r="K75" s="6"/>
+      <c r="L75" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2212,21 +2403,21 @@
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="4"/>
+      <c r="D76" s="6"/>
       <c r="F76" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H76" s="4"/>
+      <c r="H76" s="6"/>
       <c r="J76" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L76" s="4"/>
+      <c r="L76" s="6"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
@@ -2408,43 +2599,87 @@
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="5"/>
-      <c r="J84" s="4" t="s">
+      <c r="B84" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="F84" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="J84" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="5"/>
-      <c r="J85" s="4" t="s">
+      <c r="B85" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4" t="s">
+      <c r="C85" s="6"/>
+      <c r="D85" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="F85" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="5"/>
+      <c r="B86" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="F86" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H86" s="6"/>
       <c r="J86" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L86" s="4"/>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="5"/>
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="5">
+        <v>6200</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H87" s="5">
+        <v>14400</v>
+      </c>
       <c r="J87" s="1">
         <v>20</v>
       </c>
@@ -2456,6 +2691,24 @@
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" s="5">
+        <v>9600</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H88" s="5">
+        <v>17300</v>
+      </c>
       <c r="J88" s="1">
         <v>25</v>
       </c>
@@ -2467,6 +2720,24 @@
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="5">
+        <v>9600</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" s="5">
+        <v>18100</v>
+      </c>
       <c r="J89" s="1">
         <v>32</v>
       </c>
@@ -2477,7 +2748,25 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D90" s="5">
+        <v>12200</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H90" s="5">
+        <v>36700</v>
+      </c>
       <c r="J90" s="1">
         <v>40</v>
       </c>
@@ -2486,7 +2775,25 @@
       </c>
       <c r="L90" s="5"/>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="5">
+        <v>12200</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H91" s="5">
+        <v>38200</v>
+      </c>
       <c r="J91" s="1">
         <v>50</v>
       </c>
@@ -2496,6 +2803,24 @@
       <c r="L91" s="5"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" s="5">
+        <v>14100</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H92" s="5">
+        <v>38700</v>
+      </c>
       <c r="J92" s="1">
         <v>63</v>
       </c>
@@ -2504,13 +2829,524 @@
       </c>
       <c r="L92" s="5"/>
     </row>
+    <row r="93" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" s="5">
+        <v>30200</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H93" s="5">
+        <v>76500</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" t="s">
+        <v>71</v>
+      </c>
+      <c r="D94" s="5">
+        <v>30200</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G94" t="s">
+        <v>71</v>
+      </c>
+      <c r="H94" s="5">
+        <v>91800</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" s="5">
+        <v>30200</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G95" t="s">
+        <v>72</v>
+      </c>
+      <c r="H95" s="5">
+        <v>91800</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D96" s="5">
+        <v>53600</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G96" t="s">
+        <v>73</v>
+      </c>
+      <c r="H96" s="5">
+        <v>91800</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97" t="s">
+        <v>74</v>
+      </c>
+      <c r="D97" s="5">
+        <v>51200</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G97" t="s">
+        <v>74</v>
+      </c>
+      <c r="H97" s="5">
+        <v>99400</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" t="s">
+        <v>75</v>
+      </c>
+      <c r="D98" s="5">
+        <v>75000</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G98" t="s">
+        <v>75</v>
+      </c>
+      <c r="H98" s="5">
+        <v>99400</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" t="s">
+        <v>76</v>
+      </c>
+      <c r="D99" s="5">
+        <v>79600</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G99" t="s">
+        <v>76</v>
+      </c>
+      <c r="H99" s="5">
+        <v>107300</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" t="s">
+        <v>77</v>
+      </c>
+      <c r="D100" s="5">
+        <v>84300</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G100" t="s">
+        <v>77</v>
+      </c>
+      <c r="H100" s="5">
+        <v>131600</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" t="s">
+        <v>78</v>
+      </c>
+      <c r="D101" s="5">
+        <v>99500</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G101" t="s">
+        <v>78</v>
+      </c>
+      <c r="H101" s="5">
+        <v>153100</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" t="s">
+        <v>79</v>
+      </c>
+      <c r="D102" s="5">
+        <v>153100</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G102" t="s">
+        <v>97</v>
+      </c>
+      <c r="H102" s="5">
+        <v>249400</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C103" t="s">
+        <v>80</v>
+      </c>
+      <c r="D103" s="5">
+        <v>153100</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G103" t="s">
+        <v>98</v>
+      </c>
+      <c r="H103" s="5">
+        <v>249400</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104" s="5">
+        <v>153100</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G104" t="s">
+        <v>79</v>
+      </c>
+      <c r="H104" s="5">
+        <v>249400</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C105" t="s">
+        <v>82</v>
+      </c>
+      <c r="D105" s="5">
+        <v>153100</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G105" t="s">
+        <v>80</v>
+      </c>
+      <c r="H105" s="5">
+        <v>249400</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106" t="s">
+        <v>83</v>
+      </c>
+      <c r="D106" s="5">
+        <v>273900</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G106" t="s">
+        <v>81</v>
+      </c>
+      <c r="H106" s="5">
+        <v>275500</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107" t="s">
+        <v>84</v>
+      </c>
+      <c r="D107" s="5">
+        <v>273900</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G107" t="s">
+        <v>82</v>
+      </c>
+      <c r="H107" s="5">
+        <v>280700</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C108" t="s">
+        <v>85</v>
+      </c>
+      <c r="D108" s="5">
+        <v>306100</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G108" t="s">
+        <v>100</v>
+      </c>
+      <c r="H108" s="5">
+        <v>546500</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C109" t="s">
+        <v>86</v>
+      </c>
+      <c r="D109" s="5">
+        <v>336700</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G109" t="s">
+        <v>83</v>
+      </c>
+      <c r="H109" s="5">
+        <v>546500</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" t="s">
+        <v>87</v>
+      </c>
+      <c r="D110" s="5">
+        <v>398000</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G110" t="s">
+        <v>84</v>
+      </c>
+      <c r="H110" s="5">
+        <v>546500</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" t="s">
+        <v>88</v>
+      </c>
+      <c r="D111" s="5">
+        <v>398000</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G111" t="s">
+        <v>85</v>
+      </c>
+      <c r="H111" s="5">
+        <v>581700</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C112" t="s">
+        <v>89</v>
+      </c>
+      <c r="D112" s="5">
+        <v>398000</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G112" t="s">
+        <v>86</v>
+      </c>
+      <c r="H112" s="5">
+        <v>612200</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113" t="s">
+        <v>90</v>
+      </c>
+      <c r="D113" s="5">
+        <v>459200</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G113" t="s">
+        <v>89</v>
+      </c>
+      <c r="H113" s="5">
+        <v>765300</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114" t="s">
+        <v>91</v>
+      </c>
+      <c r="D114" s="5">
+        <v>459200</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G114" t="s">
+        <v>90</v>
+      </c>
+      <c r="H114" s="5">
+        <v>765300</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115" t="s">
+        <v>92</v>
+      </c>
+      <c r="D115" s="5">
+        <v>918400</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G115" t="s">
+        <v>91</v>
+      </c>
+      <c r="H115" s="5">
+        <v>842000</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F116" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G116" t="s">
+        <v>92</v>
+      </c>
+      <c r="H116" s="5">
+        <v>1652200</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F117" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="L85:L86"/>
+  <mergeCells count="63">
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:L49"/>
     <mergeCell ref="J61:L61"/>
     <mergeCell ref="J62:K62"/>
     <mergeCell ref="L62:L63"/>
@@ -2527,42 +3363,11 @@
     <mergeCell ref="F61:H61"/>
     <mergeCell ref="F62:G62"/>
     <mergeCell ref="H62:H63"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="L85:L86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
